--- a/biology/Botanique/Apeiba_glabra/Apeiba_glabra.xlsx
+++ b/biology/Botanique/Apeiba_glabra/Apeiba_glabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apeiba glabra est une espèce d'arbre de la famille des Malvaceae, (ou anciennement des Tiliaceae selon la (classification de Cronquist). 
 En Guyane, on l'appelle peigne-macaque ou bois de mêche (créole).
@@ -512,9 +524,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « 1. APEIBA (glabra) floribus vireſcentibus fructu aſpero. (Tabula 214.)
 Arbor mediocris, trunco duodecim-pedali, ad ſummitatem ramoſo ; ramis &amp; ramusculis glabris, híne &amp; indè ſparſis. Folia ovata, acuminata, glabra, integerrima, brevi petiolata, utrimque viridia. Stipule binæ, breves, decidual. Flores racemoſi ; racemi oppoſiti folio. Corolla ſubviridis; petala ovata, unguiculata, integerrima. Fructus, capſuula depreſſa, orbiculata, coriacea, denticulis minimis, rigidis undique tecta, decem &amp; octo-locularis.
 Florebat, fructumque ferebat Maio.
@@ -531,7 +545,7 @@
 J'ai trouvé cet arbre au mois de Mai, dans des terreins ou les Galibis avoient eu autrefois des habitations qu'ils ont abandonnées, près la crique appellée de leur nom. 
 Les Garipons &amp; les Galibis ſe fervent du bois de cet arbre pour avoir du feu : en frottant l'un contre l'autre avec beaucoup de viteſſe deux morceaux de ce bois arrondis &amp; pointus, ils parviennent bientôt à avoir du feu. C'eſt par rapport a cet uſage que les Créoles lui ont donne le nom de BOIS DE MECHE. Il eſt ſi léger qu'avec une feule main on peut porter un tronc de la groſſeur &amp; longueur décrites ci-deſſus. 
 Cet arbre eſt appelle IVOUYRA par les Garipons. »
-			Illustration de Apeiba aspera (=Apeiba glabra) d'après Aublet, 1775 (publication originale). (Pl. 216) Explication de la Planche deux cent seizième. - 1. Écailles. - 2. Capſule.[3]
+			Illustration de Apeiba aspera (=Apeiba glabra) d'après Aublet, 1775 (publication originale). (Pl. 216) Explication de la Planche deux cent seizième. - 1. Écailles. - 2. Capſule.
 			fruit d'Apeiba glabra
 </t>
         </is>
